--- a/biology/Médecine/Sillon_intra-occipital/Sillon_intra-occipital.xlsx
+++ b/biology/Médecine/Sillon_intra-occipital/Sillon_intra-occipital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon intra-occipital ou sillon occipital supérieur (o1) est un sillon de la face postérieure supérieure du lobe occipital du cortex.
 Ce sillon est dans le prolongement inférieur du sillon intrapariétal qui change de nom en changeant de lobe. 
